--- a/biology/Médecine/Maladie_de_Mondor/Maladie_de_Mondor.xlsx
+++ b/biology/Médecine/Maladie_de_Mondor/Maladie_de_Mondor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de Mondor est une thrombophlébite des veines au niveau de la face antérieure du thorax.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été décrite pour la première fois par Henri Mondor (1885-1962) en 1939[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été décrite pour la première fois par Henri Mondor (1885-1962) en 1939.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se présente sous forme d'un cordon plus ou moins inflammatoire au niveau du thorax[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se présente sous forme d'un cordon plus ou moins inflammatoire au niveau du thorax.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle peut compliquer une chirurgie plastique du sein ou un cancer du sein ou encore être idiopathique c'est-à-dire sans cause connue ou retrouvée[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle peut compliquer une chirurgie plastique du sein ou un cancer du sein ou encore être idiopathique c'est-à-dire sans cause connue ou retrouvée,.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie est bénigne et le traitement uniquement symptomatique[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie est bénigne et le traitement uniquement symptomatique.
 </t>
         </is>
       </c>
